--- a/medicine/Psychotrope/High_Maintenance/High_Maintenance.xlsx
+++ b/medicine/Psychotrope/High_Maintenance/High_Maintenance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">High Maintenance est une série télévisée américaine en 34 épisodes d'environ 25 minutes diffusée entre le 16 septembre 2016 et le 3 avril 2020 sur HBO[1]. Créée par le duo Ben Sinclair et Katja Blichfeld, elle est à l’origine une web-série de 19 épisodes diffusée sur le site d'hébergement de vidéos Vimeo de 2012 à 2015[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">High Maintenance est une série télévisée américaine en 34 épisodes d'environ 25 minutes diffusée entre le 16 septembre 2016 et le 3 avril 2020 sur HBO. Créée par le duo Ben Sinclair et Katja Blichfeld, elle est à l’origine une web-série de 19 épisodes diffusée sur le site d'hébergement de vidéos Vimeo de 2012 à 2015,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série, qui se déroule à New York, suit les aventures d'un vendeur de cannabis connu sous le nom de « The Guy » ou « The Weed Guy » (« le gars à l'herbe » en français, le terme est plutôt affectif, on ne peut pas vraiment traduire par « le dealeur »). Chaque épisode est dédié à l'un de ses clients en particulier.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteur principal
-Ben Sinclair (VF : Benjamin Pascal) : « The Guy »</t>
+          <t>Acteur principal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ben Sinclair (VF : Benjamin Pascal) : « The Guy »</t>
         </is>
       </c>
     </row>
@@ -573,7 +592,9 @@
           <t>Épisodes (websérie)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stevie (avec Lyman Chen et Bridget Moloney)
 Heidi (avec Greta Lee)
@@ -623,15 +644,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première saison (2016)
-Meth(od) (avec Bob the Drag Queen et Heléne Yorke)
+          <t>Première saison (2016)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Meth(od) (avec Bob the Drag Queen et Heléne Yorke)
 Museebat (avec Shazi Raja, Lee Tergesen et Amy Ryan)
 Grandpa (avec Ryan Woodle et Daniella Pineda)
 Tick (avec Gaby Hoffmann, Peter Friedman et Bridget Moloney)
 Selfie (avec Ismenia Mendes et Greta Lee)
-Ex (avec Michael Cyril Creighton et Rebecca Naomi Jones (en))
-Deuxième saison (2018)
-Le 28 septembre 2016, la série est renouvelée pour une deuxième saison[3]. Elle est diffusée depuis le 19 janvier 2018[4].
+Ex (avec Michael Cyril Creighton et Rebecca Naomi Jones (en))</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>High_Maintenance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/High_Maintenance</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes (HBO)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2018)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 28 septembre 2016, la série est renouvelée pour une deuxième saison. Elle est diffusée depuis le 19 janvier 2018.
 Globo
 Fagin
 Namaste
@@ -642,8 +702,43 @@
 Ghost
 #Goalz
 Steve
-Troisième saison (2019)
-Le 21 février 2018, la série est renouvelée pour une troisième saison[5]. Elle est diffusée depuis le 20 janvier 2019[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>High_Maintenance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/High_Maintenance</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes (HBO)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Troisième saison (2019)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 21 février 2018, la série est renouvelée pour une troisième saison. Elle est diffusée depuis le 20 janvier 2019.
 Le Temps de vivre (M.A.S.H.)
 Petites annonces (Craig)
 Blondie
@@ -653,8 +748,43 @@
 Dongle
 Spooky
 Cruise
-Quatrième saison (2020)
-Le 19 mars 2019, HBO a renouvelé la série pour une quatrième saison[7], diffusée à partir du 7 février 2020[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>High_Maintenance</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/High_Maintenance</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes (HBO)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2020)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 19 mars 2019, HBO a renouvelé la série pour une quatrième saison, diffusée à partir du 7 février 2020.
 Cycles
 Trick
 Voir Dire
@@ -668,33 +798,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>High_Maintenance</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/High_Maintenance</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Commentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 14 janvier 2021, la série est arrêtée par HBO[9].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14 janvier 2021, la série est arrêtée par HBO.
 </t>
         </is>
       </c>
